--- a/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Zooplancton/Biomasa_Biovolumen_EXP.PACiFICO_2021.xlsx
+++ b/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Zooplancton/Biomasa_Biovolumen_EXP.PACiFICO_2021.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Ictioplancton\Analisis_Exp_Pac\Ictioplancton_ExPacifico2021\01_Analisis_Exploratorio\02_Datos\Biologicos\DatosP_Zooplancton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Ictioplancton\Analisis_Exp_Pac\Ictioplancton_ExPacifico2021\03_An_Expl_DatosBiologicos\Biologicos\DatosP_Zooplancton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F01D1-4797-4952-AB0C-06B3EDA923D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573AD87C-E81C-414D-BE48-292C791ED093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="300µm" sheetId="1" r:id="rId1"/>
     <sheet name="500µm" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Total" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="159">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -487,6 +486,33 @@
   </si>
   <si>
     <t>A01B</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>BioVol500</t>
+  </si>
+  <si>
+    <t>PesoHum500</t>
+  </si>
+  <si>
+    <t>PesoSec500</t>
+  </si>
+  <si>
+    <t>PesoSCen500</t>
+  </si>
+  <si>
+    <t>BioVol300</t>
+  </si>
+  <si>
+    <t>PesoHum300</t>
+  </si>
+  <si>
+    <t>PesoSec300</t>
+  </si>
+  <si>
+    <t>PesoSCen300</t>
   </si>
 </sst>
 </file>
@@ -564,78 +590,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,12 +920,12 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L38"/>
+      <selection activeCell="H3" sqref="H3:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.85546875" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.2">
@@ -946,10 +947,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -963,1417 +964,1415 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>44315</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>0.45277777777777778</v>
       </c>
-      <c r="D3" s="14">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="11">
         <v>2291.2473952542282</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="11">
         <v>1772.8035739194893</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="11">
         <v>76.527663001491959</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="11">
         <v>37.314600436998852</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>44315</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>0.49236111111111108</v>
       </c>
-      <c r="D4" s="14">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="11">
         <v>853.68870132059067</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <v>347.84968949809678</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="11">
         <v>27.261125862171021</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="11">
         <v>23.248788965964494</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>44315</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11">
         <v>918.87947487598217</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="11">
         <v>588.48487369088798</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="11">
         <v>49.418486758173977</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="11">
         <v>39.597962370437372</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>44315</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11">
         <v>1722.899015392466</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="11">
         <v>1386.7113978405616</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="11">
         <v>114.68393929878779</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="11">
         <v>90.757873939867352</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>44316</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <v>0.28472222222222221</v>
       </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="11">
         <v>3158.6481948861856</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="11">
         <v>3070.9693854098032</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="11">
         <v>233.08191471430428</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="11">
         <v>176.83165477704244</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>44316</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>0.30069444444444443</v>
       </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="11">
         <v>988.36449383661613</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="11">
         <v>1001.8803782898311</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <v>83.665054403269451</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="11">
         <v>64.070728312959432</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>44316</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <v>0.51874999999999993</v>
       </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="11">
         <v>858.00829794511537</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <v>612.51698258011299</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="11">
         <v>51.758088796630773</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="11">
         <v>41.335811530413395</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>44316</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>0.30069444444444443</v>
       </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="11">
         <v>95.235623966417762</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="11">
         <v>497.58232631854241</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="11">
         <v>38.760898954333008</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="11">
         <v>34.856238371708834</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>44317</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <v>0.28680555555555554</v>
       </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="11">
         <v>1410.5847881124391</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="11">
         <v>1191.8986432199094</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="11">
         <v>75.102264283210999</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="11">
         <v>68.003837607548789</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>44317</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <v>0.30624999999999997</v>
       </c>
-      <c r="D12" s="14">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="11">
         <v>831.83127297661076</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="11">
         <v>638.18095262765598</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="11">
         <v>42.229300958111715</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="11">
         <v>38.929703575305282</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>44317</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="9">
         <v>0.32430555555555557</v>
       </c>
-      <c r="D13" s="14">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="11">
         <v>297.51788334877733</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="11">
         <v>122.33935363301697</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="11">
         <v>13.894085152387758</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="11">
         <v>9.9073455155144483</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="8">
         <v>44317</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="9">
         <v>0.55347222222222225</v>
       </c>
-      <c r="D14" s="14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="11">
         <v>66.034457035948193</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="11">
         <v>30.128221022650912</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="11">
         <v>5.5468943910196185</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="11">
         <v>4.9360756634373493</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="8">
         <v>44317</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="9">
         <v>0.57152777777777775</v>
       </c>
-      <c r="D15" s="14">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="11">
         <v>127.9452433371621</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="12">
         <v>85.451429393806194</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="11">
         <v>8.4123997494181122</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="11">
         <v>7.5487693568920085</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="8">
         <v>44317</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <v>0.59791666666666665</v>
       </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="11">
         <v>279.16039692938421</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="11">
         <v>160.34663021405089</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="11">
         <v>16.532499062595821</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="11">
         <v>12.298566375832884</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>44318</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>0.32361111111111113</v>
       </c>
-      <c r="D17" s="14">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="G17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="11">
         <v>784.21610355795008</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="11">
         <v>611.70723258719011</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="11">
         <v>33.254497153255066</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="11">
         <v>28.343810600021989</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="8">
         <v>44318</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>0.3430555555555555</v>
       </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="17">
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="11">
         <v>614.82203306787073</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="11">
         <v>440.35091063403553</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="11">
         <v>29.98794466288486</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="11">
         <v>24.131764797913387</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="8">
         <v>44318</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>0.36180555555555555</v>
       </c>
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="17">
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="11">
         <v>998.44099038353681</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="11">
         <v>922.9847370176974</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="11">
         <v>58.926508080598637</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="11">
         <v>51.697055724303453</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="8">
         <v>44318</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="9">
         <v>0.58958333333333335</v>
       </c>
-      <c r="D20" s="14">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="17">
+      <c r="G20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="11">
         <v>215.36237692405862</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="11">
         <v>238.29847006646963</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="11">
         <v>19.903073000731862</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="11">
         <v>17.821236690465721</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="8">
         <v>44318</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="9">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D21" s="14">
-        <v>2</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="17">
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="11">
         <v>966.3852834212704</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="11">
         <v>851.29595457530206</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="11">
         <v>67.951202243527561</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="11">
         <v>58.645269884656152</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="8">
         <v>44318</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="9">
         <v>0.36180555555555555</v>
       </c>
-      <c r="D22" s="14">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="17">
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="11">
         <v>802.90439552270175</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="11">
         <v>929.86365306472976</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="11">
         <v>70.354497657676831</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="11">
         <v>65.269436486033015</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="8">
         <v>44319</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="9">
         <v>0.35347222222222219</v>
       </c>
-      <c r="D23" s="14">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="17">
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="11">
         <v>188.76383634778003</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="11">
         <v>100.28078805975747</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="11">
         <v>6.3896558603718807</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="11">
         <v>4.5869612232510946</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="8">
         <v>44319</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>0.37152777777777773</v>
       </c>
-      <c r="D24" s="14">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="17">
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="11">
         <v>337.75644064129455</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="11">
         <v>230.31236402395655</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="11">
         <v>21.485062474125417</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="11">
         <v>19.402231090172286</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>44319</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D25" s="14">
-        <v>2</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="17">
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="11">
         <v>759.59475628525513</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="11">
         <v>563.69526863928832</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="11">
         <v>41.530843299898699</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="11">
         <v>36.612467252950317</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="8">
         <v>44319</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="9">
         <v>0.40416666666666662</v>
       </c>
-      <c r="D26" s="14">
-        <v>2</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="17">
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="11">
         <v>75.430404653998522</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="11">
         <v>77.410452776167077</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="11">
         <v>7.0527428351484991</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="11">
         <v>5.3555587304334686</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <v>44319</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="9">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D27" s="14">
-        <v>2</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="17">
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="11">
         <v>1344.1056148451853</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="11">
         <v>1024.3428890735152</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="11">
         <v>58.791179593326056</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="11">
         <v>27.607929328917844</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="8">
         <v>44319</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="9">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D28" s="14">
-        <v>2</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="17">
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="11">
         <v>1256.0706272062018</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="11">
         <v>753.34683029378971</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="11">
         <v>38.347097383530411</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="11">
         <v>14.629528481578152</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="8">
         <v>44319</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="9">
         <v>0.65138888888888891</v>
       </c>
-      <c r="D29" s="14">
-        <v>2</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="17">
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="11">
         <v>121.48646903408418</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="11">
         <v>18.936703360687421</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="11">
         <v>2.3386145289060631</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="11">
         <v>1.9285976959164455</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="13">
         <v>44319</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="14">
         <v>0.67152777777777783</v>
       </c>
-      <c r="D30" s="14">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="17">
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="11">
         <v>760.97451731483682</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="11">
         <v>626.22767242744476</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="11">
         <v>52.525360135612686</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="11">
         <v>39.480082695929283</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="8">
         <v>44320</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="9">
         <v>0.4069444444444445</v>
       </c>
-      <c r="D31" s="14">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="17">
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="11">
         <v>642.98182084197163</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="11">
         <v>474.166943779912</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="11">
         <v>29.127076484141391</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="11">
         <v>24.433309191995086</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="8">
         <v>44320</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="9">
         <v>0.42291666666666666</v>
       </c>
-      <c r="D32" s="14">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="17">
+      <c r="G32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="11">
         <v>401.67780513003572</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="11">
         <v>389.55443864792886</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="11">
         <v>2.8847769641161189</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="11">
         <v>0</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="8">
         <v>44320</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="9">
         <v>0.46597222222222223</v>
       </c>
-      <c r="D33" s="14">
-        <v>2</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="17">
+      <c r="G33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="11">
         <v>440.31494681859709</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="11">
         <v>365.44305940331833</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="11">
         <v>25.813463757239404</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="11">
         <v>20.749841868825605</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="8">
         <v>44320</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="9">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D34" s="14">
-        <v>2</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="17">
+      <c r="G34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="11">
         <v>123.0642153851762</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="11">
         <v>75.946003919576313</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="11">
         <v>5.4302085038708094</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="11">
         <v>4.7533553192517326</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="8">
         <v>44320</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="9">
         <v>0.66111111111111109</v>
       </c>
-      <c r="D35" s="14">
-        <v>2</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="17">
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="11">
         <v>1019.5060456116787</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="11">
         <v>784.05476547068338</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="11">
         <v>51.375822512789142</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="11">
         <v>47.843962283347857</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="8">
         <v>44320</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="9">
         <v>0.67638888888888893</v>
       </c>
-      <c r="D36" s="14">
-        <v>2</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
+      <c r="E36" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="17">
+      <c r="G36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="11">
         <v>1174.703874131226</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="11">
         <v>959.22402681975484</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="11">
         <v>57.462597842919465</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="11">
         <v>50.336061006523273</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="8">
         <v>44320</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="9">
         <v>0.69861111111111107</v>
       </c>
-      <c r="D37" s="14">
-        <v>2</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="G37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="11">
         <v>783.945777427802</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="11">
         <v>919.15682538966246</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="11">
         <v>54.739013908896119</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="11">
         <v>49.408182622385567</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="8">
         <v>44320</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="9">
         <v>0.71180555555555547</v>
       </c>
-      <c r="D38" s="14">
-        <v>2</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="17">
+      <c r="G38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="11">
         <v>1016.1870868266549</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="11">
         <v>796.97012752097396</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="11">
         <v>53.171989318202641</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="11">
         <v>47.278104214609144</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="18"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="6"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="21"/>
+      <c r="C40" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2383,15 +2382,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2410,10 +2409,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2426,1405 +2425,1402 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="13">
         <v>44315</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="14">
         <v>0.45277777777777778</v>
       </c>
-      <c r="D3" s="14">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="11">
         <v>151.16162846912968</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="11">
         <v>49.240900473818307</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="11">
         <v>5.0261241465989261</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="11">
         <v>3.1177085871759149</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="13">
         <v>44315</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="14">
         <v>0.49236111111111108</v>
       </c>
-      <c r="D4" s="14">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="11">
         <v>157.27708854205068</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <v>4.5348227196288056</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="11">
         <v>4.1416299982736637</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="11">
         <v>3.9319272135514178</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="13">
         <v>44315</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="14">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11">
         <v>145.97090502683264</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="11">
         <v>19.608758241938833</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="11">
         <v>7.5904870613948976</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="11">
         <v>6.1064495269545684</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="13">
         <v>44315</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="14">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11">
         <v>446.97851814427156</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="11">
         <v>332.1050389811947</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="11">
         <v>37.121565931883374</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="11">
         <v>25.790660496924701</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="13">
         <v>44316</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="14">
         <v>0.28472222222222221</v>
       </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="11">
         <v>2333.9764986843743</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="11">
         <v>1913.1838757365663</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="11">
         <v>172.87763925754916</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="11">
         <v>120.78328380691596</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="13">
         <v>44316</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="14">
         <v>0.30069444444444443</v>
       </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="11">
         <v>733.62151623163049</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="11">
         <v>371.76270335037879</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <v>36.5180488079748</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="11">
         <v>20.867456461700304</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="13">
         <v>44316</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="14">
         <v>0.51874999999999993</v>
       </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="11">
         <v>85.561576385178924</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <v>59.764761105047207</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="11">
         <v>7.5080283277994244</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="11">
         <v>6.3957278347924129</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="13">
         <v>44316</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="14">
         <v>0.30069444444444443</v>
       </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="11">
         <v>158.42749566827277</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="11">
         <v>10.35719752931381</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="11">
         <v>4.8716454917999901</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="11">
         <v>4.5151836265458005</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="13">
         <v>44317</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="14">
         <v>0.28680555555555554</v>
       </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="11">
         <v>75.908768368426323</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="11">
         <v>47.531540460030783</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="11">
         <v>4.6304348704740041</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="11">
         <v>4.2761939514212743</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="13">
         <v>44317</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="14">
         <v>0.30624999999999997</v>
       </c>
-      <c r="D12" s="14">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="11">
         <v>447.68242132245166</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="11">
         <v>29.547039807281855</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="11">
         <v>4.2529830025630968</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="11">
         <v>3.7431224671679453</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="13">
         <v>44317</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="14">
         <v>0.32430555555555557</v>
       </c>
-      <c r="D13" s="14">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="11">
         <v>532.27774459279362</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="11">
         <v>490.10173698835007</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="11">
         <v>37.217420194290241</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="11">
         <v>32.18879623879544</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="13">
         <v>44317</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="14">
         <v>0.55347222222222225</v>
       </c>
-      <c r="D14" s="14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="11">
         <v>29.869013663226234</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="11">
         <v>0.50777323227472548</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="11">
         <v>0.41816619128525534</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="11">
         <v>0.38829717762209864</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="13">
         <v>44317</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="14">
         <v>0.57152777777777775</v>
       </c>
-      <c r="D15" s="14">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="11">
         <v>30.420367848020941</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="11">
         <v>6.4947485355524872</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="11">
         <v>2.4944701635378563</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="11">
         <v>1.3384961853130488</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="13">
         <v>44317</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="14">
         <v>0.59791666666666665</v>
       </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="11">
         <v>59.317336993167864</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="11">
         <v>5.5461710088609086</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="11">
         <v>1.9426427865254063</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="11">
         <v>1.5570800960696605</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="13">
         <v>44318</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="14">
         <v>0.32361111111111113</v>
       </c>
-      <c r="D17" s="14">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="G17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="11">
         <v>620.17731641653666</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="11">
         <v>183.955536354727</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="11">
         <v>14.920736612608547</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="11">
         <v>10.032280118502753</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="13">
         <v>44318</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="14">
         <v>0.3430555555555555</v>
       </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="17">
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="11">
         <v>273.27886329224395</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="11">
         <v>274.53594606338919</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="11">
         <v>29.418469633411885</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="11">
         <v>16.137116877406772</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="13">
         <v>44318</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="14">
         <v>0.36180555555555555</v>
       </c>
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="17">
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="11">
         <v>529.38237903120432</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="11">
         <v>291.47793789458137</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="11">
         <v>21.987014809096184</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="11">
         <v>14.328616392445058</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="13">
         <v>44318</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="14">
         <v>0.58958333333333335</v>
       </c>
-      <c r="D20" s="14">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="17">
+      <c r="G20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="11">
         <v>67.624939051979069</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="11">
         <v>12.510613724615787</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="11">
         <v>2.231622988714911</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="11">
         <v>1.5722798329584511</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="13">
         <v>44318</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="14">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D21" s="14">
-        <v>2</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="17">
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="11">
         <v>99.051685553922127</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="11">
         <v>7.1647385884000965</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="11">
         <v>2.2781887677395929</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="11">
         <v>2.1131026251501073</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="13">
         <v>44318</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="14">
         <v>0.36180555555555555</v>
       </c>
-      <c r="D22" s="14">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10">
         <v>-78.14</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="17">
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="11">
         <v>126.66258425608778</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="11">
         <v>53.926595247029638</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="11">
         <v>6.0164727521642041</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="11">
         <v>5.2089987775312778</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="13">
         <v>44319</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="14">
         <v>0.35347222222222219</v>
       </c>
-      <c r="D23" s="14">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="17">
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="11">
         <v>372.60193183644003</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="11">
         <v>17.563100150654606</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="11">
         <v>4.437350279142346</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="11">
         <v>4.1155577016485907</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="13">
         <v>44319</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="14">
         <v>0.37152777777777773</v>
       </c>
-      <c r="D24" s="14">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="17">
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="11">
         <v>366.51518135665634</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="11">
         <v>222.68851560594933</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="11">
         <v>43.936007365129349</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="11">
         <v>40.225041153893713</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="13">
         <v>44319</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="14">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D25" s="14">
-        <v>2</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="17">
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="11">
         <v>416.52503668828842</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="11">
         <v>201.16557252672516</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="11">
         <v>17.349869797439055</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="11">
         <v>13.136558849398838</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="13">
         <v>44319</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="14">
         <v>0.40416666666666662</v>
       </c>
-      <c r="D26" s="14">
-        <v>2</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="17">
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="11">
         <v>243.75420153462548</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="11">
         <v>204.47930581235852</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="11">
         <v>16.819039905888914</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="11">
         <v>14.747129192845097</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="13">
         <v>44319</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="14">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D27" s="14">
-        <v>2</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="17">
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="11">
         <v>75.908768368426323</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="11">
         <v>28.984498055344453</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="11">
         <v>2.2519601282634607</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="11">
         <v>1.4296151376051773</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="13">
         <v>44319</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="14">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D28" s="14">
-        <v>2</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="17">
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="11">
         <v>66.497856734446088</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="11">
         <v>27.097876619286794</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="11">
         <v>2.3606739140726476</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="11">
         <v>1.1969614212196014</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="13">
         <v>44319</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="14">
         <v>0.65138888888888891</v>
       </c>
-      <c r="D29" s="14">
-        <v>2</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="17">
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="11">
         <v>86.472498110952571</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="11">
         <v>51.047598051497829</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="11">
         <v>4.338036988565741</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="11">
         <v>3.7327295017894597</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="13">
         <v>44319</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="14">
         <v>0.67152777777777783</v>
       </c>
-      <c r="D30" s="14">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="17">
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="11">
         <v>33.752251414634102</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="11">
         <v>29.313830353609251</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="11">
         <v>3.8983850383901602</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="11">
         <v>3.0545787530250719</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="13">
         <v>44320</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="14">
         <v>0.4069444444444445</v>
       </c>
-      <c r="D31" s="14">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="17">
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="11">
         <v>141.11607721010512</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="11">
         <v>150.55674277546069</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="11">
         <v>9.1725450186565105</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="11">
         <v>7.2533663685995435</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="13">
         <v>44320</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="14">
         <v>0.46458333333333302</v>
       </c>
-      <c r="D32" s="14">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="17">
+      <c r="G32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="11">
         <v>101.43740857796875</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="11">
         <v>55.79057471788299</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="11">
         <v>6.5596190880422922</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="11">
         <v>4.6999332641129996</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="13">
         <v>44320</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="14">
         <v>0.46597222222222223</v>
       </c>
-      <c r="D33" s="14">
-        <v>2</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="17">
+      <c r="G33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="11">
         <v>236.89861461646396</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="11">
         <v>188.06365734624137</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="11">
         <v>12.843289178135562</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="11">
         <v>6.159363980028135</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="13">
         <v>44320</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="14">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D34" s="14">
-        <v>2</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="17">
+      <c r="G34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="11">
         <v>58.765547811836072</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="11">
         <v>67.580379983610513</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="11">
         <v>4.7893921466639124</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="11">
         <v>3.9813658642525285</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="13">
         <v>44320</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="14">
         <v>0.66111111111111109</v>
       </c>
-      <c r="D35" s="14">
-        <v>2</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="17">
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="11">
         <v>61.482203306787127</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="11">
         <v>49.831325780150557</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="11">
         <v>4.5343124938753547</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="11">
         <v>3.8580082575011816</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="13">
         <v>44320</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="14">
         <v>0.67638888888888893</v>
       </c>
-      <c r="D36" s="14">
-        <v>2</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
+      <c r="E36" s="10">
         <v>-78.11</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="17">
+      <c r="G36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="11">
         <v>643.99623390883437</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="11">
         <v>580.96126920409051</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="11">
         <v>13.615920374071264</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="11">
         <v>9.935941894592073</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="13">
         <v>44320</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="14">
         <v>0.69861111111111107</v>
       </c>
-      <c r="D37" s="14">
-        <v>2</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="G37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="11">
         <v>69.933170366483779</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="11">
         <v>73.651283924301239</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="11">
         <v>4.7787666417093568</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="11">
         <v>4.2775789207503099</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:12" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="13">
         <v>44320</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="14">
         <v>0.71180555555555547</v>
       </c>
-      <c r="D38" s="14">
-        <v>2</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10">
         <v>-78.069999999999993</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="17">
+      <c r="G38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="11">
         <v>151.16162846912968</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="11">
         <v>100.31463569282657</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="11">
         <v>7.6714526448085696</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="11">
         <v>6.4621596170549962</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F39" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3833,782 +3829,1085 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3C8083-B6D8-4D60-976B-A6766A02E3AA}">
-  <dimension ref="B1:I37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
-        <v>74</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="11"/>
-      <c r="C2" s="17">
+        <v>155</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11">
         <v>151.16162846912968</v>
       </c>
-      <c r="D2" s="17">
+      <c r="C2" s="11">
         <v>49.240900473818307</v>
       </c>
-      <c r="E2" s="17">
+      <c r="D2" s="11">
         <v>5.0261241465989261</v>
       </c>
-      <c r="F2" s="17">
+      <c r="E2" s="11">
         <v>3.1177085871759149</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="17">
+      <c r="F2" s="11">
+        <v>2291.2473952542282</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1772.8035739194893</v>
+      </c>
+      <c r="H2" s="11">
+        <v>76.527663001491959</v>
+      </c>
+      <c r="I2" s="11">
+        <v>37.314600436998852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="11">
         <v>157.27708854205068</v>
       </c>
-      <c r="D3" s="17">
+      <c r="C3" s="11">
         <v>4.5348227196288056</v>
       </c>
-      <c r="E3" s="17">
+      <c r="D3" s="11">
         <v>4.1416299982736637</v>
       </c>
-      <c r="F3" s="17">
+      <c r="E3" s="11">
         <v>3.9319272135514178</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="17">
+      <c r="F3" s="11">
+        <v>853.68870132059067</v>
+      </c>
+      <c r="G3" s="11">
+        <v>347.84968949809678</v>
+      </c>
+      <c r="H3" s="11">
+        <v>27.261125862171021</v>
+      </c>
+      <c r="I3" s="11">
+        <v>23.248788965964494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="11">
         <v>145.97090502683264</v>
       </c>
-      <c r="D4" s="17">
+      <c r="C4" s="11">
         <v>19.608758241938833</v>
       </c>
-      <c r="E4" s="17">
+      <c r="D4" s="11">
         <v>7.5904870613948976</v>
       </c>
-      <c r="F4" s="17">
+      <c r="E4" s="11">
         <v>6.1064495269545684</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="17">
+      <c r="F4" s="11">
+        <v>918.87947487598217</v>
+      </c>
+      <c r="G4" s="11">
+        <v>588.48487369088798</v>
+      </c>
+      <c r="H4" s="11">
+        <v>49.418486758173977</v>
+      </c>
+      <c r="I4" s="11">
+        <v>39.597962370437372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="11">
         <v>446.97851814427156</v>
       </c>
-      <c r="D5" s="17">
+      <c r="C5" s="11">
         <v>332.1050389811947</v>
       </c>
-      <c r="E5" s="17">
+      <c r="D5" s="11">
         <v>37.121565931883374</v>
       </c>
-      <c r="F5" s="17">
+      <c r="E5" s="11">
         <v>25.790660496924701</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="17">
+      <c r="F5" s="11">
+        <v>1722.899015392466</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1386.7113978405616</v>
+      </c>
+      <c r="H5" s="11">
+        <v>114.68393929878779</v>
+      </c>
+      <c r="I5" s="11">
+        <v>90.757873939867352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="11">
         <v>2333.9764986843743</v>
       </c>
-      <c r="D6" s="17">
+      <c r="C6" s="11">
         <v>1913.1838757365663</v>
       </c>
-      <c r="E6" s="17">
+      <c r="D6" s="11">
         <v>172.87763925754916</v>
       </c>
-      <c r="F6" s="17">
+      <c r="E6" s="11">
         <v>120.78328380691596</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="17">
+      <c r="F6" s="11">
+        <v>3158.6481948861856</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3070.9693854098032</v>
+      </c>
+      <c r="H6" s="11">
+        <v>233.08191471430428</v>
+      </c>
+      <c r="I6" s="11">
+        <v>176.83165477704244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="11">
         <v>733.62151623163049</v>
       </c>
-      <c r="D7" s="17">
+      <c r="C7" s="11">
         <v>371.76270335037879</v>
       </c>
-      <c r="E7" s="17">
+      <c r="D7" s="11">
         <v>36.5180488079748</v>
       </c>
-      <c r="F7" s="17">
+      <c r="E7" s="11">
         <v>20.867456461700304</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="17">
+      <c r="F7" s="11">
+        <v>988.36449383661613</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1001.8803782898311</v>
+      </c>
+      <c r="H7" s="11">
+        <v>83.665054403269451</v>
+      </c>
+      <c r="I7" s="11">
+        <v>64.070728312959432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="11">
         <v>85.561576385178924</v>
       </c>
-      <c r="D8" s="17">
+      <c r="C8" s="11">
         <v>59.764761105047207</v>
       </c>
-      <c r="E8" s="17">
+      <c r="D8" s="11">
         <v>7.5080283277994244</v>
       </c>
-      <c r="F8" s="17">
+      <c r="E8" s="11">
         <v>6.3957278347924129</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="17">
+      <c r="F8" s="11">
+        <v>858.00829794511537</v>
+      </c>
+      <c r="G8" s="11">
+        <v>612.51698258011299</v>
+      </c>
+      <c r="H8" s="11">
+        <v>51.758088796630773</v>
+      </c>
+      <c r="I8" s="11">
+        <v>41.335811530413395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="11">
         <v>158.42749566827277</v>
       </c>
-      <c r="D9" s="17">
+      <c r="C9" s="11">
         <v>10.35719752931381</v>
       </c>
-      <c r="E9" s="17">
+      <c r="D9" s="11">
         <v>4.8716454917999901</v>
       </c>
-      <c r="F9" s="17">
+      <c r="E9" s="11">
         <v>4.5151836265458005</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="17">
+      <c r="F9" s="11">
+        <v>95.235623966417762</v>
+      </c>
+      <c r="G9" s="11">
+        <v>497.58232631854241</v>
+      </c>
+      <c r="H9" s="11">
+        <v>38.760898954333008</v>
+      </c>
+      <c r="I9" s="11">
+        <v>34.856238371708834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="11">
         <v>75.908768368426323</v>
       </c>
-      <c r="D10" s="17">
+      <c r="C10" s="11">
         <v>47.531540460030783</v>
       </c>
-      <c r="E10" s="17">
+      <c r="D10" s="11">
         <v>4.6304348704740041</v>
       </c>
-      <c r="F10" s="17">
+      <c r="E10" s="11">
         <v>4.2761939514212743</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="17">
+      <c r="F10" s="11">
+        <v>1410.5847881124391</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1191.8986432199094</v>
+      </c>
+      <c r="H10" s="11">
+        <v>75.102264283210999</v>
+      </c>
+      <c r="I10" s="11">
+        <v>68.003837607548789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="11">
         <v>447.68242132245166</v>
       </c>
-      <c r="D11" s="17">
+      <c r="C11" s="11">
         <v>29.547039807281855</v>
       </c>
-      <c r="E11" s="17">
+      <c r="D11" s="11">
         <v>4.2529830025630968</v>
       </c>
-      <c r="F11" s="17">
+      <c r="E11" s="11">
         <v>3.7431224671679453</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="17">
+      <c r="F11" s="11">
+        <v>831.83127297661076</v>
+      </c>
+      <c r="G11" s="11">
+        <v>638.18095262765598</v>
+      </c>
+      <c r="H11" s="11">
+        <v>42.229300958111715</v>
+      </c>
+      <c r="I11" s="11">
+        <v>38.929703575305282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="11">
         <v>532.27774459279362</v>
       </c>
-      <c r="D12" s="17">
+      <c r="C12" s="11">
         <v>490.10173698835007</v>
       </c>
-      <c r="E12" s="17">
+      <c r="D12" s="11">
         <v>37.217420194290241</v>
       </c>
-      <c r="F12" s="18">
+      <c r="E12" s="11">
         <v>32.18879623879544</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="17">
+      <c r="F12" s="11">
+        <v>297.51788334877733</v>
+      </c>
+      <c r="G12" s="11">
+        <v>122.33935363301697</v>
+      </c>
+      <c r="H12" s="11">
+        <v>13.894085152387758</v>
+      </c>
+      <c r="I12" s="11">
+        <v>9.9073455155144483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="11">
         <v>29.869013663226234</v>
       </c>
-      <c r="D13" s="17">
+      <c r="C13" s="11">
         <v>0.50777323227472548</v>
       </c>
-      <c r="E13" s="17">
+      <c r="D13" s="11">
         <v>0.41816619128525534</v>
       </c>
-      <c r="F13" s="18">
+      <c r="E13" s="11">
         <v>0.38829717762209864</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="17">
+      <c r="F13" s="11">
+        <v>66.034457035948193</v>
+      </c>
+      <c r="G13" s="11">
+        <v>30.128221022650912</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5.5468943910196185</v>
+      </c>
+      <c r="I13" s="11">
+        <v>4.9360756634373493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="11">
         <v>30.420367848020941</v>
       </c>
-      <c r="D14" s="17">
+      <c r="C14" s="11">
         <v>6.4947485355524872</v>
       </c>
-      <c r="E14" s="17">
+      <c r="D14" s="11">
         <v>2.4944701635378563</v>
       </c>
-      <c r="F14" s="18">
+      <c r="E14" s="11">
         <v>1.3384961853130488</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="17">
+      <c r="F14" s="11">
+        <v>127.9452433371621</v>
+      </c>
+      <c r="G14" s="12">
+        <v>85.451429393806194</v>
+      </c>
+      <c r="H14" s="11">
+        <v>8.4123997494181122</v>
+      </c>
+      <c r="I14" s="11">
+        <v>7.5487693568920085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="11">
         <v>59.317336993167864</v>
       </c>
-      <c r="D15" s="17">
+      <c r="C15" s="11">
         <v>5.5461710088609086</v>
       </c>
-      <c r="E15" s="17">
+      <c r="D15" s="11">
         <v>1.9426427865254063</v>
       </c>
-      <c r="F15" s="18">
+      <c r="E15" s="11">
         <v>1.5570800960696605</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="17">
+      <c r="F15" s="11">
+        <v>279.16039692938421</v>
+      </c>
+      <c r="G15" s="11">
+        <v>160.34663021405089</v>
+      </c>
+      <c r="H15" s="11">
+        <v>16.532499062595821</v>
+      </c>
+      <c r="I15" s="11">
+        <v>12.298566375832884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="11">
         <v>620.17731641653666</v>
       </c>
-      <c r="D16" s="17">
+      <c r="C16" s="11">
         <v>183.955536354727</v>
       </c>
-      <c r="E16" s="18">
+      <c r="D16" s="11">
         <v>14.920736612608547</v>
       </c>
-      <c r="F16" s="17">
+      <c r="E16" s="11">
         <v>10.032280118502753</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="17">
+      <c r="F16" s="11">
+        <v>784.21610355795008</v>
+      </c>
+      <c r="G16" s="11">
+        <v>611.70723258719011</v>
+      </c>
+      <c r="H16" s="11">
+        <v>33.254497153255066</v>
+      </c>
+      <c r="I16" s="11">
+        <v>28.343810600021989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="11">
         <v>273.27886329224395</v>
       </c>
-      <c r="D17" s="17">
+      <c r="C17" s="11">
         <v>274.53594606338919</v>
       </c>
-      <c r="E17" s="18">
+      <c r="D17" s="11">
         <v>29.418469633411885</v>
       </c>
-      <c r="F17" s="17">
+      <c r="E17" s="11">
         <v>16.137116877406772</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="17">
+      <c r="F17" s="11">
+        <v>614.82203306787073</v>
+      </c>
+      <c r="G17" s="11">
+        <v>440.35091063403553</v>
+      </c>
+      <c r="H17" s="11">
+        <v>29.98794466288486</v>
+      </c>
+      <c r="I17" s="11">
+        <v>24.131764797913387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="11">
         <v>529.38237903120432</v>
       </c>
-      <c r="D18" s="17">
+      <c r="C18" s="11">
         <v>291.47793789458137</v>
       </c>
-      <c r="E18" s="18">
+      <c r="D18" s="11">
         <v>21.987014809096184</v>
       </c>
-      <c r="F18" s="17">
+      <c r="E18" s="11">
         <v>14.328616392445058</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="17">
+      <c r="F18" s="11">
+        <v>998.44099038353681</v>
+      </c>
+      <c r="G18" s="11">
+        <v>922.9847370176974</v>
+      </c>
+      <c r="H18" s="11">
+        <v>58.926508080598637</v>
+      </c>
+      <c r="I18" s="11">
+        <v>51.697055724303453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="11">
         <v>67.624939051979069</v>
       </c>
-      <c r="D19" s="17">
+      <c r="C19" s="11">
         <v>12.510613724615787</v>
       </c>
-      <c r="E19" s="18">
+      <c r="D19" s="11">
         <v>2.231622988714911</v>
       </c>
-      <c r="F19" s="17">
+      <c r="E19" s="11">
         <v>1.5722798329584511</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="17">
+      <c r="F19" s="11">
+        <v>215.36237692405862</v>
+      </c>
+      <c r="G19" s="11">
+        <v>238.29847006646963</v>
+      </c>
+      <c r="H19" s="11">
+        <v>19.903073000731862</v>
+      </c>
+      <c r="I19" s="11">
+        <v>17.821236690465721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="11">
         <v>99.051685553922127</v>
       </c>
-      <c r="D20" s="17">
+      <c r="C20" s="11">
         <v>7.1647385884000965</v>
       </c>
-      <c r="E20" s="18">
+      <c r="D20" s="11">
         <v>2.2781887677395929</v>
       </c>
-      <c r="F20" s="17">
+      <c r="E20" s="11">
         <v>2.1131026251501073</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="17">
+      <c r="F20" s="11">
+        <v>966.3852834212704</v>
+      </c>
+      <c r="G20" s="11">
+        <v>851.29595457530206</v>
+      </c>
+      <c r="H20" s="11">
+        <v>67.951202243527561</v>
+      </c>
+      <c r="I20" s="11">
+        <v>58.645269884656152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="11">
         <v>126.66258425608778</v>
       </c>
-      <c r="D21" s="17">
+      <c r="C21" s="11">
         <v>53.926595247029638</v>
       </c>
-      <c r="E21" s="18">
+      <c r="D21" s="11">
         <v>6.0164727521642041</v>
       </c>
-      <c r="F21" s="17">
+      <c r="E21" s="11">
         <v>5.2089987775312778</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="17">
+      <c r="F21" s="11">
+        <v>802.90439552270175</v>
+      </c>
+      <c r="G21" s="11">
+        <v>929.86365306472976</v>
+      </c>
+      <c r="H21" s="11">
+        <v>70.354497657676831</v>
+      </c>
+      <c r="I21" s="11">
+        <v>65.269436486033015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="11">
         <v>372.60193183644003</v>
       </c>
-      <c r="D22" s="17">
+      <c r="C22" s="11">
         <v>17.563100150654606</v>
       </c>
-      <c r="E22" s="18">
+      <c r="D22" s="11">
         <v>4.437350279142346</v>
       </c>
-      <c r="F22" s="17">
+      <c r="E22" s="11">
         <v>4.1155577016485907</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="17">
+      <c r="F22" s="11">
+        <v>188.76383634778003</v>
+      </c>
+      <c r="G22" s="11">
+        <v>100.28078805975747</v>
+      </c>
+      <c r="H22" s="11">
+        <v>6.3896558603718807</v>
+      </c>
+      <c r="I22" s="11">
+        <v>4.5869612232510946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="11">
         <v>366.51518135665634</v>
       </c>
-      <c r="D23" s="17">
+      <c r="C23" s="11">
         <v>222.68851560594933</v>
       </c>
-      <c r="E23" s="18">
+      <c r="D23" s="11">
         <v>43.936007365129349</v>
       </c>
-      <c r="F23" s="17">
+      <c r="E23" s="11">
         <v>40.225041153893713</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="17">
+      <c r="F23" s="11">
+        <v>337.75644064129455</v>
+      </c>
+      <c r="G23" s="11">
+        <v>230.31236402395655</v>
+      </c>
+      <c r="H23" s="11">
+        <v>21.485062474125417</v>
+      </c>
+      <c r="I23" s="11">
+        <v>19.402231090172286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="11">
         <v>416.52503668828842</v>
       </c>
-      <c r="D24" s="17">
+      <c r="C24" s="11">
         <v>201.16557252672516</v>
       </c>
-      <c r="E24" s="18">
+      <c r="D24" s="11">
         <v>17.349869797439055</v>
       </c>
-      <c r="F24" s="17">
+      <c r="E24" s="11">
         <v>13.136558849398838</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="17">
+      <c r="F24" s="11">
+        <v>759.59475628525513</v>
+      </c>
+      <c r="G24" s="11">
+        <v>563.69526863928832</v>
+      </c>
+      <c r="H24" s="11">
+        <v>41.530843299898699</v>
+      </c>
+      <c r="I24" s="11">
+        <v>36.612467252950317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="11">
         <v>243.75420153462548</v>
       </c>
-      <c r="D25" s="17">
+      <c r="C25" s="11">
         <v>204.47930581235852</v>
       </c>
-      <c r="E25" s="18">
+      <c r="D25" s="11">
         <v>16.819039905888914</v>
       </c>
-      <c r="F25" s="17">
+      <c r="E25" s="11">
         <v>14.747129192845097</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="17">
+      <c r="F25" s="11">
+        <v>75.430404653998522</v>
+      </c>
+      <c r="G25" s="11">
+        <v>77.410452776167077</v>
+      </c>
+      <c r="H25" s="11">
+        <v>7.0527428351484991</v>
+      </c>
+      <c r="I25" s="11">
+        <v>5.3555587304334686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="11">
         <v>75.908768368426323</v>
       </c>
-      <c r="D26" s="17">
+      <c r="C26" s="11">
         <v>28.984498055344453</v>
       </c>
-      <c r="E26" s="18">
+      <c r="D26" s="11">
         <v>2.2519601282634607</v>
       </c>
-      <c r="F26" s="17">
+      <c r="E26" s="11">
         <v>1.4296151376051773</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="17">
+      <c r="F26" s="11">
+        <v>1344.1056148451853</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1024.3428890735152</v>
+      </c>
+      <c r="H26" s="11">
+        <v>58.791179593326056</v>
+      </c>
+      <c r="I26" s="11">
+        <v>27.607929328917844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="11">
         <v>66.497856734446088</v>
       </c>
-      <c r="D27" s="17">
+      <c r="C27" s="11">
         <v>27.097876619286794</v>
       </c>
-      <c r="E27" s="18">
+      <c r="D27" s="11">
         <v>2.3606739140726476</v>
       </c>
-      <c r="F27" s="17">
+      <c r="E27" s="11">
         <v>1.1969614212196014</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="17">
+      <c r="F27" s="11">
+        <v>1256.0706272062018</v>
+      </c>
+      <c r="G27" s="11">
+        <v>753.34683029378971</v>
+      </c>
+      <c r="H27" s="11">
+        <v>38.347097383530411</v>
+      </c>
+      <c r="I27" s="11">
+        <v>14.629528481578152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="11">
         <v>86.472498110952571</v>
       </c>
-      <c r="D28" s="17">
+      <c r="C28" s="11">
         <v>51.047598051497829</v>
       </c>
-      <c r="E28" s="18">
+      <c r="D28" s="11">
         <v>4.338036988565741</v>
       </c>
-      <c r="F28" s="17">
+      <c r="E28" s="11">
         <v>3.7327295017894597</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="17">
+      <c r="F28" s="11">
+        <v>121.48646903408418</v>
+      </c>
+      <c r="G28" s="11">
+        <v>18.936703360687421</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2.3386145289060631</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1.9285976959164455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="11">
         <v>33.752251414634102</v>
       </c>
-      <c r="D29" s="17">
+      <c r="C29" s="11">
         <v>29.313830353609251</v>
       </c>
-      <c r="E29" s="18">
+      <c r="D29" s="11">
         <v>3.8983850383901602</v>
       </c>
-      <c r="F29" s="17">
+      <c r="E29" s="11">
         <v>3.0545787530250719</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="17">
+      <c r="F29" s="11">
+        <v>760.97451731483682</v>
+      </c>
+      <c r="G29" s="11">
+        <v>626.22767242744476</v>
+      </c>
+      <c r="H29" s="11">
+        <v>52.525360135612686</v>
+      </c>
+      <c r="I29" s="11">
+        <v>39.480082695929283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="11">
         <v>141.11607721010512</v>
       </c>
-      <c r="D30" s="17">
+      <c r="C30" s="11">
         <v>150.55674277546069</v>
       </c>
-      <c r="E30" s="18">
+      <c r="D30" s="11">
         <v>9.1725450186565105</v>
       </c>
-      <c r="F30" s="17">
+      <c r="E30" s="11">
         <v>7.2533663685995435</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="17">
+      <c r="F30" s="11">
+        <v>642.98182084197163</v>
+      </c>
+      <c r="G30" s="11">
+        <v>474.166943779912</v>
+      </c>
+      <c r="H30" s="11">
+        <v>29.127076484141391</v>
+      </c>
+      <c r="I30" s="11">
+        <v>24.433309191995086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="11">
         <v>101.43740857796875</v>
       </c>
-      <c r="D31" s="17">
+      <c r="C31" s="11">
         <v>55.79057471788299</v>
       </c>
-      <c r="E31" s="18">
+      <c r="D31" s="11">
         <v>6.5596190880422922</v>
       </c>
-      <c r="F31" s="17">
+      <c r="E31" s="11">
         <v>4.6999332641129996</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="17">
+      <c r="F31" s="11">
+        <v>401.67780513003572</v>
+      </c>
+      <c r="G31" s="11">
+        <v>389.55443864792886</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2.8847769641161189</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="11">
         <v>236.89861461646396</v>
       </c>
-      <c r="D32" s="17">
+      <c r="C32" s="11">
         <v>188.06365734624137</v>
       </c>
-      <c r="E32" s="18">
+      <c r="D32" s="11">
         <v>12.843289178135562</v>
       </c>
-      <c r="F32" s="17">
+      <c r="E32" s="11">
         <v>6.159363980028135</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="17">
+      <c r="F32" s="11">
+        <v>440.31494681859709</v>
+      </c>
+      <c r="G32" s="11">
+        <v>365.44305940331833</v>
+      </c>
+      <c r="H32" s="11">
+        <v>25.813463757239404</v>
+      </c>
+      <c r="I32" s="11">
+        <v>20.749841868825605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="11">
         <v>58.765547811836072</v>
       </c>
-      <c r="D33" s="17">
+      <c r="C33" s="11">
         <v>67.580379983610513</v>
       </c>
-      <c r="E33" s="18">
+      <c r="D33" s="11">
         <v>4.7893921466639124</v>
       </c>
-      <c r="F33" s="17">
+      <c r="E33" s="11">
         <v>3.9813658642525285</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="17">
+      <c r="F33" s="11">
+        <v>123.0642153851762</v>
+      </c>
+      <c r="G33" s="11">
+        <v>75.946003919576313</v>
+      </c>
+      <c r="H33" s="11">
+        <v>5.4302085038708094</v>
+      </c>
+      <c r="I33" s="11">
+        <v>4.7533553192517326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="11">
         <v>61.482203306787127</v>
       </c>
-      <c r="D34" s="17">
+      <c r="C34" s="11">
         <v>49.831325780150557</v>
       </c>
-      <c r="E34" s="18">
+      <c r="D34" s="11">
         <v>4.5343124938753547</v>
       </c>
-      <c r="F34" s="17">
+      <c r="E34" s="11">
         <v>3.8580082575011816</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="17">
+      <c r="F34" s="11">
+        <v>1019.5060456116787</v>
+      </c>
+      <c r="G34" s="11">
+        <v>784.05476547068338</v>
+      </c>
+      <c r="H34" s="11">
+        <v>51.375822512789142</v>
+      </c>
+      <c r="I34" s="11">
+        <v>47.843962283347857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="11">
         <v>643.99623390883437</v>
       </c>
-      <c r="D35" s="17">
+      <c r="C35" s="11">
         <v>580.96126920409051</v>
       </c>
-      <c r="E35" s="18">
+      <c r="D35" s="11">
         <v>13.615920374071264</v>
       </c>
-      <c r="F35" s="17">
+      <c r="E35" s="11">
         <v>9.935941894592073</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="17">
+      <c r="F35" s="11">
+        <v>1174.703874131226</v>
+      </c>
+      <c r="G35" s="11">
+        <v>959.22402681975484</v>
+      </c>
+      <c r="H35" s="11">
+        <v>57.462597842919465</v>
+      </c>
+      <c r="I35" s="11">
+        <v>50.336061006523273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="11">
         <v>69.933170366483779</v>
       </c>
-      <c r="D36" s="17">
+      <c r="C36" s="11">
         <v>73.651283924301239</v>
       </c>
-      <c r="E36" s="18">
+      <c r="D36" s="11">
         <v>4.7787666417093568</v>
       </c>
-      <c r="F36" s="17">
+      <c r="E36" s="11">
         <v>4.2775789207503099</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="17">
+      <c r="F36" s="11">
+        <v>783.945777427802</v>
+      </c>
+      <c r="G36" s="11">
+        <v>919.15682538966246</v>
+      </c>
+      <c r="H36" s="11">
+        <v>54.739013908896119</v>
+      </c>
+      <c r="I36" s="11">
+        <v>49.408182622385567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="11">
         <v>151.16162846912968</v>
       </c>
-      <c r="D37" s="17">
+      <c r="C37" s="11">
         <v>100.31463569282657</v>
       </c>
-      <c r="E37" s="18">
+      <c r="D37" s="11">
         <v>7.6714526448085696</v>
       </c>
-      <c r="F37" s="17">
+      <c r="E37" s="11">
         <v>6.4621596170549962</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" t="s">
-        <v>149</v>
+      <c r="F37" s="11">
+        <v>1016.1870868266549</v>
+      </c>
+      <c r="G37" s="11">
+        <v>796.97012752097396</v>
+      </c>
+      <c r="H37" s="11">
+        <v>53.171989318202641</v>
+      </c>
+      <c r="I37" s="11">
+        <v>47.278104214609144</v>
       </c>
     </row>
   </sheetData>
